--- a/doc/04_画面遷移図_mippy.xlsx
+++ b/doc/04_画面遷移図_mippy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\6月アプリ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CF457B-5D3D-43C0-98C8-C99C377950CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E184ED-DDCF-474D-9712-1394FEDB049D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -271,8 +271,8 @@
       <xdr:rowOff>108857</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>325206</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>316162</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>103414</xdr:rowOff>
     </xdr:to>
@@ -290,9 +290,9 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="1581039" y="1188357"/>
-          <a:ext cx="7470881" cy="5382986"/>
+          <a:ext cx="5638480" cy="5382986"/>
           <a:chOff x="1517539" y="444500"/>
-          <a:chExt cx="7470881" cy="5382986"/>
+          <a:chExt cx="5638480" cy="5382986"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
@@ -350,9 +350,9 @@
         <xdr:grpSpPr>
           <a:xfrm>
             <a:off x="1517539" y="444500"/>
-            <a:ext cx="7470881" cy="5382986"/>
+            <a:ext cx="5638480" cy="5382986"/>
             <a:chOff x="1517539" y="444500"/>
-            <a:chExt cx="7470881" cy="5382986"/>
+            <a:chExt cx="5638480" cy="5382986"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
@@ -997,47 +997,6 @@
         </xdr:sp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="82" name="直線矢印コネクタ 81">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42691089-3FB2-4D5B-A75D-55D765DBC2AC}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvCxnSpPr>
-              <a:stCxn id="2" idx="1"/>
-              <a:endCxn id="80" idx="3"/>
-            </xdr:cNvCxnSpPr>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm flipH="1" flipV="1">
-              <a:off x="2980449" y="1502930"/>
-              <a:ext cx="642680" cy="1653"/>
-            </a:xfrm>
-            <a:prstGeom prst="straightConnector1">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:tailEnd type="triangle"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
             <xdr:cNvPr id="84" name="コネクタ: カギ線 83">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
@@ -1099,138 +1058,6 @@
               <a:avLst>
                 <a:gd name="adj1" fmla="val -32944425"/>
               </a:avLst>
-            </a:prstGeom>
-            <a:ln>
-              <a:tailEnd type="triangle"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="91" name="四角形: 角を丸くする 90">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08FD719C-6F01-4BA1-A383-D9461D1F0573}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="7528541" y="1260184"/>
-              <a:ext cx="1459879" cy="483507"/>
-            </a:xfrm>
-            <a:prstGeom prst="roundRect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-                <a:t>パスワード変更</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="93" name="コネクタ: カギ線 92">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E524F1C-6D43-49DC-99E9-BB04477741E1}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvCxnSpPr>
-              <a:stCxn id="91" idx="0"/>
-            </xdr:cNvCxnSpPr>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm rot="16200000" flipH="1" flipV="1">
-              <a:off x="6505582" y="-482899"/>
-              <a:ext cx="9817" cy="3495981"/>
-            </a:xfrm>
-            <a:prstGeom prst="bentConnector4">
-              <a:avLst>
-                <a:gd name="adj1" fmla="val -2328614"/>
-                <a:gd name="adj2" fmla="val 99881"/>
-              </a:avLst>
-            </a:prstGeom>
-            <a:ln>
-              <a:tailEnd type="triangle"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="100" name="直線矢印コネクタ 99">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F53C50C8-424C-44DB-8FE9-938599B64CF6}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvCxnSpPr>
-              <a:stCxn id="54" idx="3"/>
-              <a:endCxn id="91" idx="1"/>
-            </xdr:cNvCxnSpPr>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="7156019" y="1502243"/>
-              <a:ext cx="372522" cy="688"/>
-            </a:xfrm>
-            <a:prstGeom prst="straightConnector1">
-              <a:avLst/>
             </a:prstGeom>
             <a:ln>
               <a:tailEnd type="triangle"/>
@@ -1319,10 +1146,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="111" name="直線矢印コネクタ 110">
+        <xdr:cNvPr id="9" name="直線矢印コネクタ 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C687C303-3731-42F5-954E-9B1A81CAF923}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E24A3CEC-CAA0-4A51-8D42-F4738E975613}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1340,6 +1167,177 @@
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>903092</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>23294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>24947</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線矢印コネクタ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{357B3E26-75D5-4754-A226-9B3952CA857F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="80" idx="3"/>
+          <a:endCxn id="2" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3043949" y="2245794"/>
+          <a:ext cx="642680" cy="1653"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>62877</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>24040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>194009</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>107424</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="コネクタ: カギ線 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F475D35-3AAF-48FB-8B85-CAE0164E8C9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="54" idx="0"/>
+          <a:endCxn id="104" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="5529608" y="1043380"/>
+          <a:ext cx="573242" cy="1346703"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171638</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>24039</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>517071</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>108110</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="コネクタ: カギ線 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C622A05-65A3-4EE5-95CA-74EE043DE845}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="104" idx="1"/>
+          <a:endCxn id="80" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="2312495" y="1430110"/>
+          <a:ext cx="1370505" cy="573929"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -2033,7 +2031,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>

--- a/doc/04_画面遷移図_mippy.xlsx
+++ b/doc/04_画面遷移図_mippy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\6月アプリ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E184ED-DDCF-474D-9712-1394FEDB049D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C9EEE5-AEE7-4A28-8825-A48D2F4388D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面遷移図" sheetId="1" r:id="rId1"/>
@@ -2031,8 +2031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>

--- a/doc/04_画面遷移図_mippy.xlsx
+++ b/doc/04_画面遷移図_mippy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C9EEE5-AEE7-4A28-8825-A48D2F4388D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F1BF0C-7F59-4957-A3D4-2B8C3C50D877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面遷移図" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -126,6 +126,13 @@
     <t>加藤</t>
     <rPh sb="0" eb="2">
       <t>カトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>柿崎</t>
+    <rPh sb="0" eb="2">
+      <t>カキザキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -266,15 +273,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>637610</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>108857</xdr:rowOff>
+      <xdr:colOff>655685</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>190882</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>316162</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>103414</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>510604</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>86048</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -289,10 +296,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1581039" y="1188357"/>
-          <a:ext cx="5638480" cy="5382986"/>
-          <a:chOff x="1517539" y="444500"/>
-          <a:chExt cx="5638480" cy="5382986"/>
+          <a:off x="1577705" y="1029082"/>
+          <a:ext cx="6370019" cy="5526346"/>
+          <a:chOff x="724403" y="444500"/>
+          <a:chExt cx="6431616" cy="5382986"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
@@ -349,10 +356,10 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="1517539" y="444500"/>
-            <a:ext cx="5638480" cy="5382986"/>
-            <a:chOff x="1517539" y="444500"/>
-            <a:chExt cx="5638480" cy="5382986"/>
+            <a:off x="724403" y="444500"/>
+            <a:ext cx="6431616" cy="5382986"/>
+            <a:chOff x="724403" y="444500"/>
+            <a:chExt cx="6431616" cy="5382986"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
@@ -1005,13 +1012,13 @@
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
-              <a:stCxn id="80" idx="2"/>
+              <a:endCxn id="20" idx="0"/>
             </xdr:cNvCxnSpPr>
           </xdr:nvCxnSpPr>
           <xdr:spPr>
-            <a:xfrm rot="16200000" flipH="1">
-              <a:off x="2707704" y="1287838"/>
-              <a:ext cx="454705" cy="1366409"/>
+            <a:xfrm rot="10800000" flipV="1">
+              <a:off x="724402" y="1514296"/>
+              <a:ext cx="744523" cy="301025"/>
             </a:xfrm>
             <a:prstGeom prst="bentConnector2">
               <a:avLst/>
@@ -1133,16 +1140,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1247009</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>102507</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>171022</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>84550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1250043</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>109764</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>174025</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>92063</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1160,8 +1167,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4412938" y="1671864"/>
-          <a:ext cx="3034" cy="333829"/>
+          <a:off x="5163436" y="1529722"/>
+          <a:ext cx="3003" cy="343844"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1190,16 +1197,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>903092</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>23294</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>713100</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>3036</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>24947</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>61714</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>4738</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1217,8 +1224,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3043949" y="2245794"/>
-          <a:ext cx="642680" cy="1653"/>
+          <a:off x="3808397" y="2120870"/>
+          <a:ext cx="636131" cy="1702"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1247,16 +1254,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>62877</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>24040</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>283923</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>3709</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>194009</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>107424</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>397703</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>89653</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1274,8 +1281,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipV="1">
-          <a:off x="5529608" y="1043380"/>
-          <a:ext cx="573242" cy="1346703"/>
+          <a:off x="6257207" y="909446"/>
+          <a:ext cx="590440" cy="1332980"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -1304,15 +1311,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>171638</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>24039</xdr:rowOff>
+      <xdr:colOff>992838</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>3709</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>517071</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>108110</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>58122</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>90361</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1330,14 +1337,132 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="2312495" y="1430110"/>
-          <a:ext cx="1370505" cy="573929"/>
+          <a:off x="3084397" y="1280716"/>
+          <a:ext cx="1356539" cy="591148"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
           <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>809296</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>141890</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>165740</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>135405</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="四角形: 角を丸くする 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDB9ADD7-13AD-42B3-BD94-D5F737D57E92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="809296" y="2427890"/>
+          <a:ext cx="1448003" cy="498012"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>新規確認画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>116826</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57807</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>73572</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>31531</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="コネクタ: カギ線 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF13160E-7764-4EDA-8179-DB45616D55C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2208385" y="2680138"/>
+          <a:ext cx="2248001" cy="141890"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -2031,16 +2156,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.453125" customWidth="1"/>
-    <col min="2" max="2" width="17.08984375" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" customWidth="1"/>
-    <col min="4" max="4" width="18.7265625" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -2075,13 +2198,17 @@
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="6">
+        <v>45092</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
@@ -2134,7 +2261,7 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2148,7 +2275,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
